--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1894459.820841101</v>
+        <v>-1897016.118014699</v>
       </c>
     </row>
     <row r="7">
@@ -677,7 +677,7 @@
         <v>294.7321536188796</v>
       </c>
       <c r="I2" t="n">
-        <v>42.04518470759555</v>
+        <v>42.04518470759558</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.4645365582629</v>
+        <v>109.464536558263</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9711388310543</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.9961436311612</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0.532828694362538</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>164.7448226250821</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.65963851412518</v>
       </c>
       <c r="I3" t="n">
-        <v>8.915218264396643</v>
+        <v>8.915218264396657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2.576236191932187</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0312564930842</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.803454668018</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.51626366671982</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>89.17712508496179</v>
+        <v>89.17712508496182</v>
       </c>
       <c r="S4" t="n">
-        <v>189.8639731922165</v>
+        <v>52.67675683428535</v>
       </c>
       <c r="T4" t="n">
         <v>219.5722280944081</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2121353820159</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>343.5567751937704</v>
+        <v>361.317901370204</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>245.4069660656681</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>324.1729563069595</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,13 +1054,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,7 +1069,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>142.4432552702996</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1102,13 +1102,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>8.56193669984307</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>155.4595895869374</v>
+        <v>159.8642649222435</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>211.7455894640352</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>165.2134211694138</v>
       </c>
     </row>
     <row r="11">
@@ -1370,13 +1370,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>139.1886739667892</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>13.03790159951639</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,19 +1819,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>227.3641166063642</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>155.2162996298073</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,10 +2245,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>70.04554881124335</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>213.2867049641468</v>
       </c>
     </row>
     <row r="23">
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U25" t="n">
-        <v>167.7926244180741</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2761,13 +2761,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3190,10 +3190,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545298</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3512,10 +3512,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,10 +3898,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3910,7 +3910,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4325,52 +4325,52 @@
         <v>108.6858050925453</v>
       </c>
       <c r="I2" t="n">
-        <v>66.21592154951946</v>
+        <v>66.21592154951944</v>
       </c>
       <c r="J2" t="n">
-        <v>254.0744928369595</v>
+        <v>254.0744928369593</v>
       </c>
       <c r="K2" t="n">
-        <v>586.3643121319026</v>
+        <v>586.364312131902</v>
       </c>
       <c r="L2" t="n">
-        <v>1035.500977900982</v>
+        <v>1035.500977900981</v>
       </c>
       <c r="M2" t="n">
         <v>1566.921495383895</v>
       </c>
       <c r="N2" t="n">
-        <v>2111.554760801561</v>
+        <v>2111.55476080156</v>
       </c>
       <c r="O2" t="n">
-        <v>2612.501248106874</v>
+        <v>2612.501248106873</v>
       </c>
       <c r="P2" t="n">
-        <v>3005.546484356409</v>
+        <v>3005.546484356408</v>
       </c>
       <c r="Q2" t="n">
-        <v>3252.534341412641</v>
+        <v>3252.53434141264</v>
       </c>
       <c r="R2" t="n">
-        <v>3310.796077475973</v>
+        <v>3310.796077475972</v>
       </c>
       <c r="S2" t="n">
-        <v>3200.225838528233</v>
+        <v>3200.225838528231</v>
       </c>
       <c r="T2" t="n">
-        <v>2994.194385163531</v>
+        <v>3200.225838528231</v>
       </c>
       <c r="U2" t="n">
-        <v>2740.662926950237</v>
+        <v>3200.225838528231</v>
       </c>
       <c r="V2" t="n">
-        <v>2740.12471614785</v>
+        <v>2869.16295118466</v>
       </c>
       <c r="W2" t="n">
-        <v>2740.12471614785</v>
+        <v>2516.394295914546</v>
       </c>
       <c r="X2" t="n">
-        <v>2366.658957886771</v>
+        <v>2142.928537653466</v>
       </c>
       <c r="Y2" t="n">
         <v>1976.519625910959</v>
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1687.281923832322</v>
+        <v>1687.28192383232</v>
       </c>
       <c r="C3" t="n">
-        <v>1512.828894551195</v>
+        <v>1512.828894551194</v>
       </c>
       <c r="D3" t="n">
-        <v>1363.894484889943</v>
+        <v>1363.894484889942</v>
       </c>
       <c r="E3" t="n">
-        <v>1204.657029884488</v>
+        <v>1204.657029884487</v>
       </c>
       <c r="F3" t="n">
-        <v>1058.122471911373</v>
+        <v>1058.122471911372</v>
       </c>
       <c r="G3" t="n">
-        <v>921.7528074700986</v>
+        <v>921.7528074700973</v>
       </c>
       <c r="H3" t="n">
-        <v>831.1875160416894</v>
+        <v>831.187516041688</v>
       </c>
       <c r="I3" t="n">
-        <v>822.1822450675513</v>
+        <v>822.18224506755</v>
       </c>
       <c r="J3" t="n">
-        <v>915.251676209306</v>
+        <v>915.2516762093046</v>
       </c>
       <c r="K3" t="n">
-        <v>1152.476982636379</v>
+        <v>1152.476982636378</v>
       </c>
       <c r="L3" t="n">
-        <v>1517.778223703863</v>
+        <v>1517.778223703862</v>
       </c>
       <c r="M3" t="n">
-        <v>1963.424410055477</v>
+        <v>1963.424410055475</v>
       </c>
       <c r="N3" t="n">
-        <v>2435.274169813951</v>
+        <v>2435.27416981395</v>
       </c>
       <c r="O3" t="n">
-        <v>2844.704721461208</v>
+        <v>2844.704721461207</v>
       </c>
       <c r="P3" t="n">
-        <v>3153.975768949902</v>
+        <v>3153.9757689499</v>
       </c>
       <c r="Q3" t="n">
-        <v>3310.796077475973</v>
+        <v>3310.796077475972</v>
       </c>
       <c r="R3" t="n">
-        <v>3310.796077475973</v>
+        <v>3310.796077475972</v>
       </c>
       <c r="S3" t="n">
-        <v>3181.236262460969</v>
+        <v>3181.236262460968</v>
       </c>
       <c r="T3" t="n">
-        <v>2988.56680350853</v>
+        <v>2988.566803508529</v>
       </c>
       <c r="U3" t="n">
-        <v>2760.498524782821</v>
+        <v>2760.498524782819</v>
       </c>
       <c r="V3" t="n">
-        <v>2525.346416551078</v>
+        <v>2525.346416551077</v>
       </c>
       <c r="W3" t="n">
-        <v>2271.109059822877</v>
+        <v>2271.109059822875</v>
       </c>
       <c r="X3" t="n">
-        <v>2063.257559617344</v>
+        <v>2063.257559617342</v>
       </c>
       <c r="Y3" t="n">
-        <v>1855.49726085239</v>
+        <v>1855.497260852389</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>947.2497273910989</v>
+        <v>382.0420519753367</v>
       </c>
       <c r="C4" t="n">
-        <v>778.313544463192</v>
+        <v>213.1058690474298</v>
       </c>
       <c r="D4" t="n">
-        <v>628.1969050508562</v>
+        <v>213.1058690474298</v>
       </c>
       <c r="E4" t="n">
-        <v>480.2838114684631</v>
+        <v>213.1058690474298</v>
       </c>
       <c r="F4" t="n">
-        <v>477.6815526887336</v>
+        <v>66.21592154951944</v>
       </c>
       <c r="G4" t="n">
-        <v>309.9732127967294</v>
+        <v>66.21592154951944</v>
       </c>
       <c r="H4" t="n">
-        <v>163.7070969704486</v>
+        <v>66.21592154951944</v>
       </c>
       <c r="I4" t="n">
-        <v>66.21592154951946</v>
+        <v>66.21592154951944</v>
       </c>
       <c r="J4" t="n">
-        <v>110.9572157501789</v>
+        <v>110.9572157501788</v>
       </c>
       <c r="K4" t="n">
-        <v>314.3177428179431</v>
+        <v>314.317742817943</v>
       </c>
       <c r="L4" t="n">
-        <v>630.0756374886843</v>
+        <v>630.0756374886842</v>
       </c>
       <c r="M4" t="n">
-        <v>973.3871879897969</v>
+        <v>973.3871879897968</v>
       </c>
       <c r="N4" t="n">
         <v>1313.970173580891</v>
       </c>
       <c r="O4" t="n">
-        <v>1612.537390213392</v>
+        <v>1612.537390213391</v>
       </c>
       <c r="P4" t="n">
         <v>1844.492540894131</v>
       </c>
       <c r="Q4" t="n">
-        <v>1921.651183891644</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="R4" t="n">
-        <v>1831.57327976542</v>
+        <v>1831.573279765419</v>
       </c>
       <c r="S4" t="n">
-        <v>1639.791488662171</v>
+        <v>1778.364434478262</v>
       </c>
       <c r="T4" t="n">
-        <v>1418.00135927388</v>
+        <v>1556.574305089971</v>
       </c>
       <c r="U4" t="n">
-        <v>1128.898192221339</v>
+        <v>1556.574305089971</v>
       </c>
       <c r="V4" t="n">
-        <v>1128.898192221339</v>
+        <v>1301.889816884084</v>
       </c>
       <c r="W4" t="n">
-        <v>1128.898192221339</v>
+        <v>1012.472646847124</v>
       </c>
       <c r="X4" t="n">
-        <v>1128.898192221339</v>
+        <v>784.4830959491065</v>
       </c>
       <c r="Y4" t="n">
-        <v>1128.898192221339</v>
+        <v>563.6905168055764</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1537.587676342462</v>
+        <v>1597.525106594341</v>
       </c>
       <c r="C5" t="n">
-        <v>1168.625159402051</v>
+        <v>1228.562589653929</v>
       </c>
       <c r="D5" t="n">
-        <v>810.3594607953003</v>
+        <v>870.2968910471786</v>
       </c>
       <c r="E5" t="n">
-        <v>424.571208197056</v>
+        <v>484.5086384489344</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678289</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265601</v>
+        <v>2713.898852101347</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995486</v>
+        <v>2361.130196831232</v>
       </c>
       <c r="X5" t="n">
-        <v>2314.326848382396</v>
+        <v>1987.664438570152</v>
       </c>
       <c r="Y5" t="n">
-        <v>1924.187516406584</v>
+        <v>1597.525106594341</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064554</v>
@@ -4644,13 +4644,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>920.3423867623641</v>
+        <v>943.7005868594143</v>
       </c>
       <c r="C7" t="n">
-        <v>920.3423867623641</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D7" t="n">
-        <v>770.2257473500283</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E7" t="n">
-        <v>622.3126537676352</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>475.4227062697248</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7198696444437</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1828.815669937088</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>1574.131181731201</v>
       </c>
       <c r="W7" t="n">
-        <v>1101.990851592604</v>
+        <v>1574.131181731201</v>
       </c>
       <c r="X7" t="n">
-        <v>1101.990851592604</v>
+        <v>1346.141630833184</v>
       </c>
       <c r="Y7" t="n">
-        <v>1101.990851592604</v>
+        <v>1125.349051689654</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4841,13 +4841,13 @@
         <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>2535.034709923658</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>2161.568951662578</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y8" t="n">
-        <v>2004.539063190924</v>
+        <v>1647.321240915451</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,19 +4884,19 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>773.7942044041906</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="C10" t="n">
-        <v>604.8580214762837</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1210.127157440317</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>955.4426692344304</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W10" t="n">
-        <v>955.4426692344304</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X10" t="n">
-        <v>955.4426692344304</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="Y10" t="n">
-        <v>955.4426692344304</v>
+        <v>507.5323442946291</v>
       </c>
     </row>
     <row r="11">
@@ -5018,10 +5018,10 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>189.0729639753273</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>189.0729639753273</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000582</v>
@@ -5233,16 +5233,16 @@
         <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1977.461080510508</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1688.043910473548</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>1460.05435957553</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y13" t="n">
-        <v>1239.261780432</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="14">
@@ -5276,25 +5276,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5367,16 +5367,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>577.8620388433919</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C16" t="n">
-        <v>408.925855915485</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y16" t="n">
-        <v>759.5105036736317</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,19 +5516,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239598</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121652</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121652</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121652</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,10 +5747,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.777212765616</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C22" t="n">
-        <v>782.8410298377091</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>2126.309465880251</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1871.624977674364</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1582.207807637403</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>1354.218256739386</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.425677595856</v>
+        <v>950.7540666811333</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>633.4413279836774</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>464.5051450557705</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578602</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U25" t="n">
-        <v>1807.973581098312</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V25" t="n">
-        <v>1553.289092892425</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W25" t="n">
-        <v>1263.871922855465</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X25" t="n">
-        <v>1035.882371957447</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>815.0897928139171</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="26">
@@ -6218,40 +6218,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6449,19 +6449,19 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745237</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6792,13 +6792,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
         <v>656.9646031150023</v>
@@ -6853,16 +6853,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,16 +6883,16 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,13 +7090,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7151,70 +7151,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7312,16 +7312,16 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7354,22 +7354,22 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
         <v>1280.338681582389</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,10 +7567,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954148</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7591,16 +7591,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,13 +7722,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
         <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5463950602909335</v>
+        <v>0.546395060290962</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9711388310543</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.9961436311612</v>
       </c>
       <c r="V2" t="n">
-        <v>327.2194297757724</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>221.4931160309715</v>
       </c>
     </row>
     <row r="3">
@@ -22708,22 +22708,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>142.844811830999</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.51626366671984</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,25 +22753,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>137.1872163579311</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22793,7 +22793,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>45.55814437150743</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22847,7 +22847,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>45.55814437150954</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.64330621514807</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922734</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>127.2568112467075</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238324</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.421048022933</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012282</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>59.15888173022682</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>63.36835372228748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,10 +24133,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>216.1389255780008</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>5.29794838794794</v>
       </c>
     </row>
     <row r="23">
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U25" t="n">
-        <v>118.3918499711701</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1340498.809355252</v>
+        <v>1340498.809355253</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1323812.103796506</v>
+        <v>1323812.103796507</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85079.37398365742</v>
+        <v>85079.37398365744</v>
       </c>
       <c r="C2" t="n">
         <v>102176.9176965389</v>
@@ -26323,10 +26323,10 @@
         <v>100893.3249612508</v>
       </c>
       <c r="F2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="G2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="H2" t="n">
         <v>100893.3249612508</v>
@@ -26335,25 +26335,25 @@
         <v>100893.3249612508</v>
       </c>
       <c r="J2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="K2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="L2" t="n">
+        <v>102630.2212330355</v>
+      </c>
+      <c r="M2" t="n">
         <v>102630.2212330356</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>102630.2212330355</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>102630.2212330354</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>102630.2212330355</v>
-      </c>
-      <c r="P2" t="n">
-        <v>102630.2212330354</v>
       </c>
     </row>
     <row r="3">
@@ -26366,7 +26366,7 @@
         <v>1324592.616629868</v>
       </c>
       <c r="C3" t="n">
-        <v>3947.344390015035</v>
+        <v>3947.344390015316</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>216562.4822237808</v>
       </c>
       <c r="K3" t="n">
-        <v>952.8885570182491</v>
+        <v>952.8885570183077</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551178</v>
@@ -26418,10 +26418,10 @@
         <v>13043.78970477443</v>
       </c>
       <c r="C4" t="n">
-        <v>90114.05304721503</v>
+        <v>90114.05304721514</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26433,7 +26433,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
@@ -26442,22 +26442,22 @@
         <v>12996.86414683046</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683047</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="L4" t="n">
+        <v>20987.7234099239</v>
+      </c>
+      <c r="M4" t="n">
+        <v>20987.72340992392</v>
+      </c>
+      <c r="N4" t="n">
+        <v>20987.72340992392</v>
+      </c>
+      <c r="O4" t="n">
+        <v>20987.7234099239</v>
+      </c>
+      <c r="P4" t="n">
         <v>20987.72340992391</v>
-      </c>
-      <c r="M4" t="n">
-        <v>20987.72340992391</v>
-      </c>
-      <c r="N4" t="n">
-        <v>20987.72340992389</v>
-      </c>
-      <c r="O4" t="n">
-        <v>20987.72340992388</v>
-      </c>
-      <c r="P4" t="n">
-        <v>20987.7234099239</v>
       </c>
     </row>
     <row r="5">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1360200.000604758</v>
+        <v>-1360551.017549745</v>
       </c>
       <c r="C6" t="n">
-        <v>-99818.42030208447</v>
+        <v>-99827.48637281479</v>
       </c>
       <c r="D6" t="n">
-        <v>-97487.61824653963</v>
+        <v>-97487.61824653961</v>
       </c>
       <c r="E6" t="n">
-        <v>-338638.5308168419</v>
+        <v>-338673.2687422775</v>
       </c>
       <c r="F6" t="n">
-        <v>-13226.0690094868</v>
+        <v>-13260.80693492244</v>
       </c>
       <c r="G6" t="n">
-        <v>-13226.06900948683</v>
+        <v>-13260.80693492245</v>
       </c>
       <c r="H6" t="n">
-        <v>-13226.0690094868</v>
+        <v>-13260.80693492244</v>
       </c>
       <c r="I6" t="n">
-        <v>-13226.06900948676</v>
+        <v>-13260.80693492247</v>
       </c>
       <c r="J6" t="n">
-        <v>-229788.5512332676</v>
+        <v>-229823.2891587032</v>
       </c>
       <c r="K6" t="n">
-        <v>-14178.95756650507</v>
+        <v>-14213.69549194077</v>
       </c>
       <c r="L6" t="n">
-        <v>-40949.33602443545</v>
+        <v>-40949.33602443559</v>
       </c>
       <c r="M6" t="n">
-        <v>-106576.6459663156</v>
+        <v>-106576.6459663155</v>
       </c>
       <c r="N6" t="n">
-        <v>-21521.6180308039</v>
+        <v>-21521.61803080385</v>
       </c>
       <c r="O6" t="n">
-        <v>-21521.61803080379</v>
+        <v>-21521.61803080386</v>
       </c>
       <c r="P6" t="n">
         <v>-21521.61803080386</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>827.6990193689933</v>
+        <v>827.6990193689929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26823,10 +26823,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,7 +26960,7 @@
         <v>1086.755407162287</v>
       </c>
       <c r="C3" t="n">
-        <v>3.021293431011372</v>
+        <v>3.0212934310116</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>827.6990193689933</v>
+        <v>827.6990193689929</v>
       </c>
       <c r="C4" t="n">
-        <v>3.702436033299591</v>
+        <v>3.702436033299819</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>827.699019368993</v>
+        <v>827.6990193689929</v>
       </c>
       <c r="K4" t="n">
-        <v>3.702436033299591</v>
+        <v>3.702436033299819</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>827.6990193689933</v>
+        <v>827.6990193689929</v>
       </c>
       <c r="K4" t="n">
-        <v>3.702436033299591</v>
+        <v>3.702436033299819</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>63.31927054794107</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>82.34529240446682</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2.31175964402118</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.6499015057698</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>230.7783490691162</v>
+        <v>226.3736737338101</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>74.46624874157763</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>53.37123218268098</v>
       </c>
     </row>
     <row r="11">
@@ -28090,13 +28090,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-2.053100445934254e-12</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30232,10 +30232,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.368865958441351</v>
+        <v>4.36886595844135</v>
       </c>
       <c r="H2" t="n">
-        <v>44.7426484968875</v>
+        <v>44.74264849688749</v>
       </c>
       <c r="I2" t="n">
-        <v>168.4307048628104</v>
+        <v>168.4307048628103</v>
       </c>
       <c r="J2" t="n">
-        <v>370.802037140262</v>
+        <v>370.8020371402619</v>
       </c>
       <c r="K2" t="n">
-        <v>555.7361331610845</v>
+        <v>555.7361331610844</v>
       </c>
       <c r="L2" t="n">
-        <v>689.4398147367341</v>
+        <v>689.439814736734</v>
       </c>
       <c r="M2" t="n">
-        <v>767.1346347251655</v>
+        <v>767.1346347251653</v>
       </c>
       <c r="N2" t="n">
-        <v>779.547675129587</v>
+        <v>779.5476751295869</v>
       </c>
       <c r="O2" t="n">
-        <v>736.1047642553358</v>
+        <v>736.1047642553357</v>
       </c>
       <c r="P2" t="n">
-        <v>628.2483859063149</v>
+        <v>628.2483859063148</v>
       </c>
       <c r="Q2" t="n">
-        <v>471.7883737696338</v>
+        <v>471.7883737696337</v>
       </c>
       <c r="R2" t="n">
-        <v>274.4357762619418</v>
+        <v>274.4357762619417</v>
       </c>
       <c r="S2" t="n">
-        <v>99.55553302798239</v>
+        <v>99.55553302798236</v>
       </c>
       <c r="T2" t="n">
         <v>19.12471073307702</v>
@@ -31118,37 +31118,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.33754936634907</v>
+        <v>2.337549366349069</v>
       </c>
       <c r="H3" t="n">
-        <v>22.57580572237129</v>
+        <v>22.57580572237128</v>
       </c>
       <c r="I3" t="n">
-        <v>80.48141458701843</v>
+        <v>80.48141458701842</v>
       </c>
       <c r="J3" t="n">
-        <v>220.8471530724795</v>
+        <v>220.8471530724794</v>
       </c>
       <c r="K3" t="n">
-        <v>377.4629606178672</v>
+        <v>377.4629606178671</v>
       </c>
       <c r="L3" t="n">
-        <v>507.5455323732926</v>
+        <v>507.5455323732925</v>
       </c>
       <c r="M3" t="n">
-        <v>592.2816969034463</v>
+        <v>592.2816969034462</v>
       </c>
       <c r="N3" t="n">
-        <v>607.9576310312873</v>
+        <v>607.9576310312872</v>
       </c>
       <c r="O3" t="n">
-        <v>556.1624582295526</v>
+        <v>556.1624582295525</v>
       </c>
       <c r="P3" t="n">
-        <v>446.3694048776571</v>
+        <v>446.369404877657</v>
       </c>
       <c r="Q3" t="n">
-        <v>298.3861261325585</v>
+        <v>298.3861261325584</v>
       </c>
       <c r="R3" t="n">
         <v>145.133108903673</v>
@@ -31157,7 +31157,7 @@
         <v>43.41895423898379</v>
       </c>
       <c r="T3" t="n">
-        <v>9.421964331906993</v>
+        <v>9.421964331906992</v>
       </c>
       <c r="U3" t="n">
         <v>0.1537861425229652</v>
@@ -31200,7 +31200,7 @@
         <v>1.959722865374615</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4237178394216</v>
+        <v>17.42371783942159</v>
       </c>
       <c r="I4" t="n">
         <v>58.93421126053845</v>
@@ -31209,16 +31209,16 @@
         <v>138.5524065819853</v>
       </c>
       <c r="K4" t="n">
-        <v>227.6841656317053</v>
+        <v>227.6841656317052</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3573430939679</v>
+        <v>291.3573430939678</v>
       </c>
       <c r="M4" t="n">
-        <v>307.1954669786772</v>
+        <v>307.1954669786771</v>
       </c>
       <c r="N4" t="n">
-        <v>299.8910453895539</v>
+        <v>299.8910453895538</v>
       </c>
       <c r="O4" t="n">
         <v>276.9979191894957</v>
@@ -31230,16 +31230,16 @@
         <v>164.1000664815053</v>
       </c>
       <c r="R4" t="n">
-        <v>88.1162662922077</v>
+        <v>88.11626629220767</v>
       </c>
       <c r="S4" t="n">
-        <v>34.15262484475579</v>
+        <v>34.15262484475578</v>
       </c>
       <c r="T4" t="n">
-        <v>8.373361333873355</v>
+        <v>8.373361333873353</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1068939744749792</v>
+        <v>0.1068939744749791</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31847,7 +31847,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753705</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32087,7 +32087,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>322.6999460717714</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>724.9681211658376</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,10 +32549,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,16 +32561,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32713,10 +32713,10 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N23" t="n">
         <v>981.2715114159425</v>
@@ -32789,28 +32789,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>491.1355220041058</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>291.8940795642898</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,31 +33020,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>724.9681211658385</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33260,19 +33260,19 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>359.1374415194863</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.544175081759</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,16 +34448,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>189.7561326135757</v>
+        <v>189.7561326135756</v>
       </c>
       <c r="K2" t="n">
-        <v>335.6462821161039</v>
+        <v>335.6462821161038</v>
       </c>
       <c r="L2" t="n">
-        <v>453.6733997667469</v>
+        <v>453.6733997667467</v>
       </c>
       <c r="M2" t="n">
-        <v>536.7884014978928</v>
+        <v>536.7884014978926</v>
       </c>
       <c r="N2" t="n">
-        <v>550.1346115329961</v>
+        <v>550.1346115329959</v>
       </c>
       <c r="O2" t="n">
-        <v>506.006552833649</v>
+        <v>506.0065528336489</v>
       </c>
       <c r="P2" t="n">
-        <v>397.0153901510453</v>
+        <v>397.0153901510452</v>
       </c>
       <c r="Q2" t="n">
-        <v>249.4826838951843</v>
+        <v>249.4826838951842</v>
       </c>
       <c r="R2" t="n">
-        <v>58.85023844780966</v>
+        <v>58.8502384478096</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.00952640581281</v>
+        <v>94.00952640581275</v>
       </c>
       <c r="K3" t="n">
-        <v>239.6215216435082</v>
+        <v>239.6215216435081</v>
       </c>
       <c r="L3" t="n">
-        <v>368.9911525934185</v>
+        <v>368.9911525934183</v>
       </c>
       <c r="M3" t="n">
-        <v>450.147662981428</v>
+        <v>450.1476629814279</v>
       </c>
       <c r="N3" t="n">
-        <v>476.615918947954</v>
+        <v>476.6159189479539</v>
       </c>
       <c r="O3" t="n">
-        <v>413.5662137851082</v>
+        <v>413.5662137851081</v>
       </c>
       <c r="P3" t="n">
-        <v>312.3949974633269</v>
+        <v>312.3949974633268</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.404352046537</v>
+        <v>158.4043520465369</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19322646531253</v>
+        <v>45.19322646531251</v>
       </c>
       <c r="K4" t="n">
         <v>205.4146738058224</v>
@@ -34863,19 +34863,19 @@
         <v>318.947368354284</v>
       </c>
       <c r="M4" t="n">
-        <v>346.7793439405178</v>
+        <v>346.7793439405177</v>
       </c>
       <c r="N4" t="n">
-        <v>344.0232177687825</v>
+        <v>344.0232177687824</v>
       </c>
       <c r="O4" t="n">
         <v>301.5830471035354</v>
       </c>
       <c r="P4" t="n">
-        <v>234.2981320007469</v>
+        <v>234.2981320007468</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.93802322981092</v>
+        <v>77.9380232298109</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>237.2862717533522</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>191.358233988438</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>582.8340872438192</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,16 +36209,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36361,10 +36361,10 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>151.9123054782682</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>582.8340872438201</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367785</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,13 +38099,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
